--- a/biology/Zoologie/Cybaeus_koikei/Cybaeus_koikei.xlsx
+++ b/biology/Zoologie/Cybaeus_koikei/Cybaeus_koikei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cybaeus koikei est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cybaeus koikei est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon[1]. Elle se rencontre dans les préfectures de Kyoto, de Shiga et de Fukui[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. Elle se rencontre dans les préfectures de Kyoto, de Shiga et de Fukui.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,04 mm de long sur 1,53 mm et l'abdomen 1,71 mm de long sur 1,32 mm et la carapace de la femelle paratype mesure 2,17 mm de long sur 1,51 mm et l'abdomen 2,03 mm de long sur 1,35 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,04 mm de long sur 1,53 mm et l'abdomen 1,71 mm de long sur 1,32 mm et la carapace de la femelle paratype mesure 2,17 mm de long sur 1,51 mm et l'abdomen 2,03 mm de long sur 1,35 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Naoki Koike[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Naoki Koike.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sugawara, Ihara &amp; Nakano, 2021 : « A new species of Cybaeus L. Koch, 1868 (Araneae, Cybaeidae) with simple genitalia from central Japan is the sister species of C. melanoparvus Kobayashi, 2006 with elongated genitalia. » Zoosystematics and Evolution, vol. 97, no 1, p. 223-233.</t>
         </is>
